--- a/medicine/Enfance/Nadine_Kaadan/Nadine_Kaadan.xlsx
+++ b/medicine/Enfance/Nadine_Kaadan/Nadine_Kaadan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadine Kaadan est une illustratrice et auteur de livres pour enfants syrienne née à Paris en 1985. 
 </t>
@@ -511,11 +523,13 @@
           <t>Formation et carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est diplômée de la Faculté des Beaux-arts de l'Université de Damas à Damas, Syrie[1], et une maîtrise en illustration à l'Université de Kingston, en Angleterre. Elle a publié 15 livres[2], dont des histoires sur le monde arabe[3]. Elle écrit également sur le rapport à la guerre et sur l'exil vécus par les enfants[4]. 
-Son livre "Leila réponds-moi" a remporté le prix Anna Lindh (meilleur livre de fiction pour les enfants ayant des besoins spéciaux)[5], il est utilisé pour enseigner des cours de langue arabe à l'Université de Harvard.
-Elle est membre de l'International Board on Books for Young People[6].  Ses illustrations ont été exposées à la Biennale de l'illustration de Bratislava 2011[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diplômée de la Faculté des Beaux-arts de l'Université de Damas à Damas, Syrie, et une maîtrise en illustration à l'Université de Kingston, en Angleterre. Elle a publié 15 livres, dont des histoires sur le monde arabe. Elle écrit également sur le rapport à la guerre et sur l'exil vécus par les enfants. 
+Son livre "Leila réponds-moi" a remporté le prix Anna Lindh (meilleur livre de fiction pour les enfants ayant des besoins spéciaux), il est utilisé pour enseigner des cours de langue arabe à l'Université de Harvard.
+Elle est membre de l'International Board on Books for Young People.  Ses illustrations ont été exposées à la Biennale de l'illustration de Bratislava 2011. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nadine Kaadan figure sur la liste des 100 femmes de la BBC annoncée le 23 novembre 2020[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadine Kaadan figure sur la liste des 100 femmes de la BBC annoncée le 23 novembre 2020.
 </t>
         </is>
       </c>
